--- a/AAII_Financials/Quarterly/BONL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BONL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/BONL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BONL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>BONL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -676,67 +676,82 @@
     <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -744,46 +759,58 @@
         <v>400</v>
       </c>
       <c r="E8" s="3">
+        <v>300</v>
+      </c>
+      <c r="F8" s="3">
+        <v>300</v>
+      </c>
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
-      </c>
-      <c r="G8" s="3">
-        <v>300</v>
-      </c>
-      <c r="H8" s="3">
-        <v>900</v>
       </c>
       <c r="I8" s="3">
         <v>400</v>
       </c>
       <c r="J8" s="3">
+        <v>400</v>
+      </c>
+      <c r="K8" s="3">
+        <v>300</v>
+      </c>
+      <c r="L8" s="3">
+        <v>900</v>
+      </c>
+      <c r="M8" s="3">
+        <v>400</v>
+      </c>
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="S8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="T8" s="3">
         <v>400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="U8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -829,8 +856,20 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +915,20 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +946,12 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +997,20 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1056,20 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1115,20 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1174,20 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1202,12 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1146,8 +1253,20 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,46 +1274,58 @@
         <v>400</v>
       </c>
       <c r="E18" s="3">
+        <v>300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>300</v>
+      </c>
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>900</v>
       </c>
       <c r="I18" s="3">
         <v>400</v>
       </c>
       <c r="J18" s="3">
+        <v>400</v>
+      </c>
+      <c r="K18" s="3">
+        <v>300</v>
+      </c>
+      <c r="L18" s="3">
+        <v>900</v>
+      </c>
+      <c r="M18" s="3">
+        <v>400</v>
+      </c>
+      <c r="N18" s="3">
         <v>600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="P18" s="3">
         <v>500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="Q18" s="3">
         <v>600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="R18" s="3">
         <v>400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="S18" s="3">
         <v>400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="T18" s="3">
         <v>400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="U18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1343,12 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,46 +1356,58 @@
         <v>-400</v>
       </c>
       <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-900</v>
       </c>
       <c r="I20" s="3">
         <v>-400</v>
       </c>
       <c r="J20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="Q20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="U20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,8 +1453,20 @@
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,8 +1512,20 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1400,8 +1571,20 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1630,20 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1689,20 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1541,8 +1748,20 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1588,8 +1807,20 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1866,20 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1925,20 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1984,20 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +2043,20 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,46 +2064,58 @@
         <v>400</v>
       </c>
       <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>300</v>
+      </c>
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>900</v>
       </c>
       <c r="I32" s="3">
         <v>400</v>
       </c>
       <c r="J32" s="3">
+        <v>400</v>
+      </c>
+      <c r="K32" s="3">
+        <v>300</v>
+      </c>
+      <c r="L32" s="3">
+        <v>900</v>
+      </c>
+      <c r="M32" s="3">
+        <v>400</v>
+      </c>
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="Q32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="U32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1870,8 +2161,20 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +2220,20 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1964,60 +2279,84 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2374,12 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2397,12 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2101,8 +2448,20 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2507,20 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2566,20 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2625,20 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2684,20 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2743,20 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2802,20 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2430,8 +2861,20 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2920,20 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2979,20 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +3038,20 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +3097,20 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +3156,20 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2712,8 +3215,20 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +3246,12 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +3269,12 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2797,8 +3320,20 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,8 +3379,20 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2891,8 +3438,20 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,8 +3497,20 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3556,20 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3615,20 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3674,20 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3733,20 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,8 +3792,20 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3220,8 +3851,20 @@
       <c r="Q66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3882,12 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3933,20 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3992,20 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +4051,20 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,8 +4110,20 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3474,8 +4169,20 @@
       <c r="Q72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +4228,20 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +4287,20 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,8 +4346,20 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3662,8 +4405,20 @@
       <c r="Q76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +4464,84 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3808,8 +4587,20 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4618,12 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4669,20 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4728,20 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4787,20 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4846,20 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4905,20 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4964,20 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4156,8 +5023,20 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +5054,12 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +5105,20 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +5164,20 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +5223,20 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +5282,20 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +5313,12 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +5364,20 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +5423,20 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5482,20 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +5541,20 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4617,8 +5600,20 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +5659,20 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4709,6 +5716,18 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BONL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BONL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>BONL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,104 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,55 +773,64 @@
         <v>300</v>
       </c>
       <c r="F8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G8" s="3">
         <v>400</v>
       </c>
       <c r="H8" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I8" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J8" s="3">
         <v>400</v>
       </c>
       <c r="K8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L8" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M8" s="3">
         <v>400</v>
       </c>
       <c r="N8" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="O8" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="P8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q8" s="3">
         <v>600</v>
       </c>
       <c r="R8" s="3">
+        <v>600</v>
+      </c>
+      <c r="S8" s="3">
+        <v>500</v>
+      </c>
+      <c r="T8" s="3">
+        <v>600</v>
+      </c>
+      <c r="U8" s="3">
         <v>400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="V8" s="3">
         <v>400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="W8" s="3">
         <v>400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="X8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -868,8 +888,17 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +956,17 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +988,11 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1050,17 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1118,17 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1186,17 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1254,17 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,8 +1283,11 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1265,8 +1345,17 @@
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1277,55 +1366,64 @@
         <v>300</v>
       </c>
       <c r="F18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G18" s="3">
         <v>400</v>
       </c>
       <c r="H18" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I18" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J18" s="3">
         <v>400</v>
       </c>
       <c r="K18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L18" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M18" s="3">
         <v>400</v>
       </c>
       <c r="N18" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="O18" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="P18" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q18" s="3">
         <v>600</v>
       </c>
       <c r="R18" s="3">
+        <v>600</v>
+      </c>
+      <c r="S18" s="3">
+        <v>500</v>
+      </c>
+      <c r="T18" s="3">
+        <v>600</v>
+      </c>
+      <c r="U18" s="3">
         <v>400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V18" s="3">
         <v>400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="W18" s="3">
         <v>400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="X18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1445,11 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1359,55 +1460,64 @@
         <v>-300</v>
       </c>
       <c r="F20" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G20" s="3">
         <v>-400</v>
       </c>
       <c r="H20" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I20" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J20" s="3">
         <v>-400</v>
       </c>
       <c r="K20" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="L20" s="3">
-        <v>-900</v>
+        <v>-400</v>
       </c>
       <c r="M20" s="3">
         <v>-400</v>
       </c>
       <c r="N20" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="O20" s="3">
-        <v>-600</v>
+        <v>-900</v>
       </c>
       <c r="P20" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="Q20" s="3">
         <v>-600</v>
       </c>
       <c r="R20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="W20" s="3">
         <v>-400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="X20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1465,8 +1575,17 @@
       <c r="U21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,8 +1643,17 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1583,8 +1711,17 @@
       <c r="U23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1779,17 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,8 +1847,17 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1760,8 +1915,17 @@
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1819,8 +1983,17 @@
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +2051,17 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +2119,17 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2187,17 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2255,17 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2067,55 +2276,64 @@
         <v>300</v>
       </c>
       <c r="F32" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G32" s="3">
         <v>400</v>
       </c>
       <c r="H32" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I32" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J32" s="3">
         <v>400</v>
       </c>
       <c r="K32" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L32" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M32" s="3">
         <v>400</v>
       </c>
       <c r="N32" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="O32" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="P32" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q32" s="3">
         <v>600</v>
       </c>
       <c r="R32" s="3">
+        <v>600</v>
+      </c>
+      <c r="S32" s="3">
+        <v>500</v>
+      </c>
+      <c r="T32" s="3">
+        <v>600</v>
+      </c>
+      <c r="U32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="V32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="W32" s="3">
         <v>400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="X32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2173,8 +2391,17 @@
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,8 +2459,17 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2291,72 +2527,90 @@
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2632,11 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,8 +2658,11 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2460,8 +2720,17 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2788,17 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2856,17 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2924,17 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2992,17 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,8 +3060,17 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +3128,17 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2873,8 +3196,17 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3264,17 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3332,17 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3400,17 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3468,17 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,8 +3536,17 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3227,8 +3604,17 @@
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3636,11 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3662,11 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3332,8 +3724,17 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,8 +3792,17 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3450,8 +3860,17 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3509,8 +3928,17 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3996,17 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +4064,17 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +4132,17 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4200,17 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,8 +4268,17 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3863,8 +4336,17 @@
       <c r="U66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+      <c r="X66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4368,11 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4430,17 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4498,17 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4566,17 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,8 +4634,17 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4181,8 +4702,17 @@
       <c r="U72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+      <c r="W72" s="3">
+        <v>0</v>
+      </c>
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4770,17 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4838,17 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,8 +4906,17 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4417,8 +4974,17 @@
       <c r="U76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+      <c r="W76" s="3">
+        <v>0</v>
+      </c>
+      <c r="X76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,72 +5042,90 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4599,8 +5183,17 @@
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +5215,11 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +5277,17 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5345,17 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5413,17 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5481,17 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5549,17 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5617,17 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5035,8 +5685,17 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5717,11 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5779,17 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5847,17 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5915,17 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5294,8 +5983,17 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +6015,11 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +6077,17 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +6145,17 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +6213,17 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +6281,17 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5612,8 +6349,17 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,8 +6417,17 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5728,6 +6483,15 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BONL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BONL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>BONL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,131 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>300</v>
-      </c>
-      <c r="F8" s="3">
-        <v>400</v>
       </c>
       <c r="G8" s="3">
         <v>400</v>
       </c>
       <c r="H8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I8" s="3">
         <v>300</v>
       </c>
       <c r="J8" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K8" s="3">
         <v>400</v>
@@ -797,28 +801,28 @@
         <v>400</v>
       </c>
       <c r="N8" s="3">
+        <v>400</v>
+      </c>
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>400</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>600</v>
       </c>
       <c r="R8" s="3">
         <v>600</v>
       </c>
       <c r="S8" s="3">
+        <v>600</v>
+      </c>
+      <c r="T8" s="3">
         <v>500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>600</v>
-      </c>
-      <c r="U8" s="3">
-        <v>400</v>
       </c>
       <c r="V8" s="3">
         <v>400</v>
@@ -827,10 +831,13 @@
         <v>400</v>
       </c>
       <c r="X8" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1312,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1354,31 +1381,34 @@
       <c r="X17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>600</v>
+      </c>
+      <c r="E18" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>400</v>
       </c>
       <c r="G18" s="3">
         <v>400</v>
       </c>
       <c r="H18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I18" s="3">
         <v>300</v>
       </c>
       <c r="J18" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K18" s="3">
         <v>400</v>
@@ -1390,28 +1420,28 @@
         <v>400</v>
       </c>
       <c r="N18" s="3">
+        <v>400</v>
+      </c>
+      <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>600</v>
       </c>
       <c r="R18" s="3">
         <v>600</v>
       </c>
       <c r="S18" s="3">
+        <v>600</v>
+      </c>
+      <c r="T18" s="3">
         <v>500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>600</v>
-      </c>
-      <c r="U18" s="3">
-        <v>400</v>
       </c>
       <c r="V18" s="3">
         <v>400</v>
@@ -1420,10 +1450,13 @@
         <v>400</v>
       </c>
       <c r="X18" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,31 +1481,32 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-400</v>
       </c>
       <c r="G20" s="3">
         <v>-400</v>
       </c>
       <c r="H20" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I20" s="3">
         <v>-300</v>
       </c>
       <c r="J20" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="K20" s="3">
         <v>-400</v>
@@ -1484,28 +1518,28 @@
         <v>-400</v>
       </c>
       <c r="N20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-600</v>
       </c>
       <c r="R20" s="3">
         <v>-600</v>
       </c>
       <c r="S20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-600</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-400</v>
       </c>
       <c r="V20" s="3">
         <v>-400</v>
@@ -1514,10 +1548,13 @@
         <v>-400</v>
       </c>
       <c r="X20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1584,8 +1621,11 @@
       <c r="X21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,8 +1692,11 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1720,8 +1763,11 @@
       <c r="X23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,8 +1905,11 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1924,8 +1976,11 @@
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1992,8 +2047,11 @@
       <c r="X27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,31 +2331,34 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>600</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>400</v>
       </c>
       <c r="G32" s="3">
         <v>400</v>
       </c>
       <c r="H32" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I32" s="3">
         <v>300</v>
       </c>
       <c r="J32" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K32" s="3">
         <v>400</v>
@@ -2300,28 +2370,28 @@
         <v>400</v>
       </c>
       <c r="N32" s="3">
+        <v>400</v>
+      </c>
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>600</v>
       </c>
       <c r="R32" s="3">
         <v>600</v>
       </c>
       <c r="S32" s="3">
+        <v>600</v>
+      </c>
+      <c r="T32" s="3">
         <v>500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>600</v>
-      </c>
-      <c r="U32" s="3">
-        <v>400</v>
       </c>
       <c r="V32" s="3">
         <v>400</v>
@@ -2330,10 +2400,13 @@
         <v>400</v>
       </c>
       <c r="X32" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2400,8 +2473,11 @@
       <c r="X33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,8 +2544,11 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2536,81 +2615,87 @@
       <c r="X35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2747,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2729,8 +2816,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2887,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3029,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3100,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3171,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3242,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3668,11 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3613,8 +3739,11 @@
       <c r="X54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3795,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3733,8 +3864,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,8 +3935,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3869,8 +4006,11 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,8 +4077,11 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4148,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,8 +4432,11 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4345,8 +4503,11 @@
       <c r="X66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,8 +4814,11 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4711,8 +4885,11 @@
       <c r="X72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,8 +5098,11 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4983,8 +5169,11 @@
       <c r="X76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,81 +5240,87 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5192,8 +5387,11 @@
       <c r="X81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5840,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5694,8 +5911,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6222,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6533,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6358,8 +6604,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6675,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6744,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BONL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BONL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>BONL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,133 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E8" s="3">
         <v>400</v>
       </c>
       <c r="F8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G8" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H8" s="3">
         <v>400</v>
@@ -789,55 +800,64 @@
         <v>300</v>
       </c>
       <c r="J8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K8" s="3">
         <v>400</v>
       </c>
       <c r="L8" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M8" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N8" s="3">
         <v>400</v>
       </c>
       <c r="O8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P8" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="Q8" s="3">
         <v>400</v>
       </c>
       <c r="R8" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="S8" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="U8" s="3">
         <v>600</v>
       </c>
       <c r="V8" s="3">
+        <v>600</v>
+      </c>
+      <c r="W8" s="3">
+        <v>500</v>
+      </c>
+      <c r="X8" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y8" s="3">
         <v>400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Z8" s="3">
         <v>400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="AA8" s="3">
         <v>400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AB8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -907,8 +927,17 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +1007,17 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1043,11 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1117,17 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1197,17 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,8 +1277,17 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1357,17 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,8 +1390,11 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1384,22 +1464,31 @@
       <c r="Y17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E18" s="3">
         <v>400</v>
       </c>
       <c r="F18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G18" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H18" s="3">
         <v>400</v>
@@ -1408,55 +1497,64 @@
         <v>300</v>
       </c>
       <c r="J18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K18" s="3">
         <v>400</v>
       </c>
       <c r="L18" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M18" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N18" s="3">
         <v>400</v>
       </c>
       <c r="O18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P18" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="Q18" s="3">
         <v>400</v>
       </c>
       <c r="R18" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="S18" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T18" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="U18" s="3">
         <v>600</v>
       </c>
       <c r="V18" s="3">
+        <v>600</v>
+      </c>
+      <c r="W18" s="3">
+        <v>500</v>
+      </c>
+      <c r="X18" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y18" s="3">
         <v>400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Z18" s="3">
         <v>400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="AA18" s="3">
         <v>400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AB18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,22 +1580,25 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="E20" s="3">
         <v>-400</v>
       </c>
       <c r="F20" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G20" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="H20" s="3">
         <v>-400</v>
@@ -1506,55 +1607,64 @@
         <v>-300</v>
       </c>
       <c r="J20" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K20" s="3">
         <v>-400</v>
       </c>
       <c r="L20" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="M20" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="N20" s="3">
         <v>-400</v>
       </c>
       <c r="O20" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="P20" s="3">
-        <v>-900</v>
+        <v>-400</v>
       </c>
       <c r="Q20" s="3">
         <v>-400</v>
       </c>
       <c r="R20" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="S20" s="3">
-        <v>-600</v>
+        <v>-900</v>
       </c>
       <c r="T20" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="U20" s="3">
         <v>-600</v>
       </c>
       <c r="V20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="W20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Z20" s="3">
         <v>-400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="AA20" s="3">
         <v>-400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AB20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1624,8 +1734,17 @@
       <c r="Y21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,8 +1814,17 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1766,8 +1894,17 @@
       <c r="Y23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1974,17 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,8 +2054,17 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1979,8 +2134,17 @@
       <c r="Y26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2050,8 +2214,17 @@
       <c r="Y27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2294,17 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2374,17 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2454,17 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,22 +2534,31 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E32" s="3">
         <v>400</v>
       </c>
       <c r="F32" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G32" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H32" s="3">
         <v>400</v>
@@ -2358,55 +2567,64 @@
         <v>300</v>
       </c>
       <c r="J32" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K32" s="3">
         <v>400</v>
       </c>
       <c r="L32" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M32" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N32" s="3">
         <v>400</v>
       </c>
       <c r="O32" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P32" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="Q32" s="3">
         <v>400</v>
       </c>
       <c r="R32" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="S32" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T32" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="U32" s="3">
         <v>600</v>
       </c>
       <c r="V32" s="3">
+        <v>600</v>
+      </c>
+      <c r="W32" s="3">
+        <v>500</v>
+      </c>
+      <c r="X32" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y32" s="3">
         <v>400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Z32" s="3">
         <v>400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="AA32" s="3">
         <v>400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AB32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2476,8 +2694,17 @@
       <c r="Y33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,8 +2774,17 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2618,84 +2854,102 @@
       <c r="Y35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2975,11 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,8 +3005,11 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2819,8 +3079,17 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,8 +3159,17 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3239,17 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3319,17 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3103,8 +3399,17 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3174,8 +3479,17 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,8 +3559,17 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3316,8 +3639,17 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3719,17 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3799,17 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3879,17 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3600,8 +3959,17 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,8 +4039,17 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3742,8 +4119,17 @@
       <c r="Y54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +4155,11 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +4185,11 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3867,8 +4259,17 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,8 +4339,17 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4009,8 +4419,17 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4080,8 +4499,17 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,8 +4579,17 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4222,8 +4659,17 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4739,17 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4819,17 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,8 +4899,17 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4506,8 +4979,17 @@
       <c r="Y66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +5015,11 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +5089,17 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +5169,17 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +5249,17 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,8 +5329,17 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4888,8 +5409,17 @@
       <c r="Y72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5489,17 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5569,17 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,8 +5649,17 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5172,8 +5729,17 @@
       <c r="Y76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,84 +5809,102 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5390,8 +5974,17 @@
       <c r="Y81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +6010,11 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5488,8 +6084,17 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +6164,17 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +6244,17 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +6324,17 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +6404,17 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,8 +6484,17 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5914,8 +6564,17 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6600,11 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6012,8 +6674,17 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6754,17 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6834,17 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6225,8 +6914,17 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6950,11 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +7024,17 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +7104,17 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +7184,17 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,8 +7264,17 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6607,8 +7344,17 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,8 +7424,17 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6747,6 +7502,15 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BONL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BONL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>BONL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,158 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
-      </c>
-      <c r="E8" s="3">
-        <v>400</v>
       </c>
       <c r="F8" s="3">
         <v>400</v>
       </c>
       <c r="G8" s="3">
+        <v>400</v>
+      </c>
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>400</v>
       </c>
       <c r="K8" s="3">
         <v>400</v>
       </c>
       <c r="L8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M8" s="3">
         <v>300</v>
       </c>
       <c r="N8" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O8" s="3">
         <v>400</v>
@@ -824,28 +828,28 @@
         <v>400</v>
       </c>
       <c r="R8" s="3">
+        <v>400</v>
+      </c>
+      <c r="S8" s="3">
         <v>300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>400</v>
-      </c>
-      <c r="U8" s="3">
-        <v>600</v>
       </c>
       <c r="V8" s="3">
         <v>600</v>
       </c>
       <c r="W8" s="3">
+        <v>600</v>
+      </c>
+      <c r="X8" s="3">
         <v>500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>600</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>400</v>
       </c>
       <c r="Z8" s="3">
         <v>400</v>
@@ -854,10 +858,13 @@
         <v>400</v>
       </c>
       <c r="AB8" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,8 +943,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1306,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,8 +1419,9 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1473,43 +1500,46 @@
       <c r="AB17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>400</v>
+      </c>
+      <c r="E18" s="3">
         <v>500</v>
-      </c>
-      <c r="E18" s="3">
-        <v>400</v>
       </c>
       <c r="F18" s="3">
         <v>400</v>
       </c>
       <c r="G18" s="3">
+        <v>400</v>
+      </c>
+      <c r="H18" s="3">
         <v>600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>400</v>
       </c>
       <c r="K18" s="3">
         <v>400</v>
       </c>
       <c r="L18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M18" s="3">
         <v>300</v>
       </c>
       <c r="N18" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O18" s="3">
         <v>400</v>
@@ -1521,28 +1551,28 @@
         <v>400</v>
       </c>
       <c r="R18" s="3">
+        <v>400</v>
+      </c>
+      <c r="S18" s="3">
         <v>300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>400</v>
-      </c>
-      <c r="U18" s="3">
-        <v>600</v>
       </c>
       <c r="V18" s="3">
         <v>600</v>
       </c>
       <c r="W18" s="3">
+        <v>600</v>
+      </c>
+      <c r="X18" s="3">
         <v>500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>600</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>400</v>
       </c>
       <c r="Z18" s="3">
         <v>400</v>
@@ -1551,10 +1581,13 @@
         <v>400</v>
       </c>
       <c r="AB18" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,43 +1616,44 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-500</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-400</v>
       </c>
       <c r="F20" s="3">
         <v>-400</v>
       </c>
       <c r="G20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-400</v>
       </c>
       <c r="K20" s="3">
         <v>-400</v>
       </c>
       <c r="L20" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="M20" s="3">
         <v>-300</v>
       </c>
       <c r="N20" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="O20" s="3">
         <v>-400</v>
@@ -1631,28 +1665,28 @@
         <v>-400</v>
       </c>
       <c r="R20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-600</v>
       </c>
       <c r="V20" s="3">
         <v>-600</v>
       </c>
       <c r="W20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X20" s="3">
         <v>-500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>-400</v>
       </c>
       <c r="Z20" s="3">
         <v>-400</v>
@@ -1661,10 +1695,13 @@
         <v>-400</v>
       </c>
       <c r="AB20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1743,8 +1780,11 @@
       <c r="AB21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,8 +1863,11 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1903,8 +1946,11 @@
       <c r="AB23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,8 +2112,11 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2143,8 +2195,11 @@
       <c r="AB26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2223,8 +2278,11 @@
       <c r="AB27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,43 +2610,46 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>500</v>
-      </c>
-      <c r="E32" s="3">
-        <v>400</v>
       </c>
       <c r="F32" s="3">
         <v>400</v>
       </c>
       <c r="G32" s="3">
+        <v>400</v>
+      </c>
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>400</v>
       </c>
       <c r="K32" s="3">
         <v>400</v>
       </c>
       <c r="L32" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M32" s="3">
         <v>300</v>
       </c>
       <c r="N32" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O32" s="3">
         <v>400</v>
@@ -2591,28 +2661,28 @@
         <v>400</v>
       </c>
       <c r="R32" s="3">
+        <v>400</v>
+      </c>
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
-      </c>
-      <c r="U32" s="3">
-        <v>600</v>
       </c>
       <c r="V32" s="3">
         <v>600</v>
       </c>
       <c r="W32" s="3">
+        <v>600</v>
+      </c>
+      <c r="X32" s="3">
         <v>500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>600</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>400</v>
       </c>
       <c r="Z32" s="3">
         <v>400</v>
@@ -2621,10 +2691,13 @@
         <v>400</v>
       </c>
       <c r="AB32" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2703,8 +2776,11 @@
       <c r="AB33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,8 +2859,11 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2863,93 +2942,99 @@
       <c r="AB35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3094,9 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3088,8 +3175,11 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3258,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3424,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3408,8 +3507,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3488,8 +3590,11 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3673,11 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3648,8 +3756,11 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4005,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,8 +4171,11 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4128,8 +4254,11 @@
       <c r="AB54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4318,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4268,8 +4399,11 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4348,8 +4482,11 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4428,8 +4565,11 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4508,8 +4648,11 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,8 +4731,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,8 +5063,11 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4988,8 +5146,11 @@
       <c r="AB66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,8 +5509,11 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5418,8 +5592,11 @@
       <c r="AB72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,8 +5841,11 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5738,8 +5924,11 @@
       <c r="AB76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,93 +6007,99 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5983,8 +6178,11 @@
       <c r="AB81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6292,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6707,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6573,8 +6790,11 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6823,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +6904,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7070,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +7153,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7516,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7353,8 +7599,11 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7682,11 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7511,6 +7763,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BONL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BONL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>BONL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,126 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,37 +792,37 @@
         <v>400</v>
       </c>
       <c r="E8" s="3">
+        <v>400</v>
+      </c>
+      <c r="F8" s="3">
         <v>500</v>
-      </c>
-      <c r="F8" s="3">
-        <v>400</v>
       </c>
       <c r="G8" s="3">
         <v>400</v>
       </c>
       <c r="H8" s="3">
+        <v>400</v>
+      </c>
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
-      </c>
-      <c r="K8" s="3">
-        <v>400</v>
       </c>
       <c r="L8" s="3">
         <v>400</v>
       </c>
       <c r="M8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N8" s="3">
         <v>300</v>
       </c>
       <c r="O8" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P8" s="3">
         <v>400</v>
@@ -831,28 +834,28 @@
         <v>400</v>
       </c>
       <c r="S8" s="3">
+        <v>400</v>
+      </c>
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>400</v>
-      </c>
-      <c r="V8" s="3">
-        <v>600</v>
       </c>
       <c r="W8" s="3">
         <v>600</v>
       </c>
       <c r="X8" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y8" s="3">
         <v>500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>600</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>400</v>
       </c>
       <c r="AA8" s="3">
         <v>400</v>
@@ -861,10 +864,13 @@
         <v>400</v>
       </c>
       <c r="AC8" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -946,8 +952,11 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1038,11 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,8 +1328,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,8 +1445,9 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1503,8 +1529,11 @@
       <c r="AC17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1512,37 +1541,37 @@
         <v>400</v>
       </c>
       <c r="E18" s="3">
+        <v>400</v>
+      </c>
+      <c r="F18" s="3">
         <v>500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>400</v>
       </c>
       <c r="G18" s="3">
         <v>400</v>
       </c>
       <c r="H18" s="3">
+        <v>400</v>
+      </c>
+      <c r="I18" s="3">
         <v>600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>400</v>
       </c>
       <c r="L18" s="3">
         <v>400</v>
       </c>
       <c r="M18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N18" s="3">
         <v>300</v>
       </c>
       <c r="O18" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P18" s="3">
         <v>400</v>
@@ -1554,28 +1583,28 @@
         <v>400</v>
       </c>
       <c r="S18" s="3">
+        <v>400</v>
+      </c>
+      <c r="T18" s="3">
         <v>300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>400</v>
-      </c>
-      <c r="V18" s="3">
-        <v>600</v>
       </c>
       <c r="W18" s="3">
         <v>600</v>
       </c>
       <c r="X18" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y18" s="3">
         <v>500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>600</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>400</v>
       </c>
       <c r="AA18" s="3">
         <v>400</v>
@@ -1584,10 +1613,13 @@
         <v>400</v>
       </c>
       <c r="AC18" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1649,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,37 +1659,37 @@
         <v>-400</v>
       </c>
       <c r="E20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-400</v>
       </c>
       <c r="G20" s="3">
         <v>-400</v>
       </c>
       <c r="H20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-400</v>
       </c>
       <c r="L20" s="3">
         <v>-400</v>
       </c>
       <c r="M20" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="N20" s="3">
         <v>-300</v>
       </c>
       <c r="O20" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="P20" s="3">
         <v>-400</v>
@@ -1668,28 +1701,28 @@
         <v>-400</v>
       </c>
       <c r="S20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-400</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-600</v>
       </c>
       <c r="W20" s="3">
         <v>-600</v>
       </c>
       <c r="X20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-600</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>-400</v>
       </c>
       <c r="AA20" s="3">
         <v>-400</v>
@@ -1698,10 +1731,13 @@
         <v>-400</v>
       </c>
       <c r="AC20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1783,8 +1819,11 @@
       <c r="AC21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,8 +1905,11 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1949,8 +1991,11 @@
       <c r="AC23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2032,8 +2077,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,8 +2163,11 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2198,8 +2249,11 @@
       <c r="AC26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2281,8 +2335,11 @@
       <c r="AC27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2679,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2622,37 +2691,37 @@
         <v>400</v>
       </c>
       <c r="E32" s="3">
+        <v>400</v>
+      </c>
+      <c r="F32" s="3">
         <v>500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>400</v>
       </c>
       <c r="G32" s="3">
         <v>400</v>
       </c>
       <c r="H32" s="3">
+        <v>400</v>
+      </c>
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>400</v>
       </c>
       <c r="L32" s="3">
         <v>400</v>
       </c>
       <c r="M32" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N32" s="3">
         <v>300</v>
       </c>
       <c r="O32" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P32" s="3">
         <v>400</v>
@@ -2664,28 +2733,28 @@
         <v>400</v>
       </c>
       <c r="S32" s="3">
+        <v>400</v>
+      </c>
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>400</v>
-      </c>
-      <c r="V32" s="3">
-        <v>600</v>
       </c>
       <c r="W32" s="3">
         <v>600</v>
       </c>
       <c r="X32" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y32" s="3">
         <v>500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>600</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>400</v>
       </c>
       <c r="AA32" s="3">
         <v>400</v>
@@ -2694,10 +2763,13 @@
         <v>400</v>
       </c>
       <c r="AC32" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2779,8 +2851,11 @@
       <c r="AC33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,8 +2937,11 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2945,96 +3023,102 @@
       <c r="AC35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,8 +3180,9 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3178,8 +3264,11 @@
       <c r="AC41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,8 +3350,11 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3344,8 +3436,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,8 +3522,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3510,8 +3608,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3593,8 +3694,11 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,8 +3780,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3759,8 +3866,11 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3842,8 +3952,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4091,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,8 +4296,11 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4257,8 +4382,11 @@
       <c r="AC54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,8 +4448,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4402,8 +4532,11 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4485,8 +4618,11 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4568,8 +4704,11 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4651,8 +4790,11 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4734,8 +4876,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4817,8 +4962,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,8 +5220,11 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5149,8 +5306,11 @@
       <c r="AC66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,8 +5682,11 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5595,8 +5768,11 @@
       <c r="AC72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,8 +6026,11 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5927,8 +6112,11 @@
       <c r="AC76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,96 +6198,102 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6181,8 +6375,11 @@
       <c r="AC81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6295,8 +6493,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,8 +6923,11 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6793,8 +7009,11 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6907,8 +7127,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,8 +7299,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7156,8 +7385,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,8 +7761,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7602,8 +7847,11 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,8 +7933,11 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7766,6 +8017,9 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BONL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BONL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>BONL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,134 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AF7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -792,43 +800,43 @@
         <v>400</v>
       </c>
       <c r="E8" s="3">
+        <v>500</v>
+      </c>
+      <c r="F8" s="3">
         <v>400</v>
-      </c>
-      <c r="F8" s="3">
-        <v>500</v>
       </c>
       <c r="G8" s="3">
         <v>400</v>
       </c>
       <c r="H8" s="3">
+        <v>500</v>
+      </c>
+      <c r="I8" s="3">
         <v>400</v>
-      </c>
-      <c r="I8" s="3">
-        <v>600</v>
       </c>
       <c r="J8" s="3">
         <v>400</v>
       </c>
       <c r="K8" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L8" s="3">
         <v>400</v>
       </c>
       <c r="M8" s="3">
+        <v>300</v>
+      </c>
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
+        <v>400</v>
+      </c>
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>300</v>
-      </c>
-      <c r="P8" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>400</v>
       </c>
       <c r="R8" s="3">
         <v>400</v>
@@ -837,40 +845,46 @@
         <v>400</v>
       </c>
       <c r="T8" s="3">
+        <v>400</v>
+      </c>
+      <c r="U8" s="3">
+        <v>400</v>
+      </c>
+      <c r="V8" s="3">
         <v>300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>600</v>
-      </c>
-      <c r="X8" s="3">
-        <v>600</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>500</v>
       </c>
       <c r="Z8" s="3">
         <v>600</v>
       </c>
       <c r="AA8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AB8" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AC8" s="3">
         <v>400</v>
       </c>
       <c r="AD8" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>400</v>
+      </c>
+      <c r="AF8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -955,8 +969,14 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1061,14 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1099,10 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1187,14 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1279,14 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1331,8 +1371,14 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1463,14 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,8 +1498,10 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1532,8 +1586,14 @@
       <c r="AD17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1541,43 +1601,43 @@
         <v>400</v>
       </c>
       <c r="E18" s="3">
+        <v>500</v>
+      </c>
+      <c r="F18" s="3">
         <v>400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>500</v>
       </c>
       <c r="G18" s="3">
         <v>400</v>
       </c>
       <c r="H18" s="3">
+        <v>500</v>
+      </c>
+      <c r="I18" s="3">
         <v>400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>600</v>
       </c>
       <c r="J18" s="3">
         <v>400</v>
       </c>
       <c r="K18" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L18" s="3">
         <v>400</v>
       </c>
       <c r="M18" s="3">
+        <v>300</v>
+      </c>
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
+        <v>400</v>
+      </c>
+      <c r="P18" s="3">
         <v>300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>400</v>
       </c>
       <c r="R18" s="3">
         <v>400</v>
@@ -1586,40 +1646,46 @@
         <v>400</v>
       </c>
       <c r="T18" s="3">
+        <v>400</v>
+      </c>
+      <c r="U18" s="3">
+        <v>400</v>
+      </c>
+      <c r="V18" s="3">
         <v>300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>600</v>
-      </c>
-      <c r="X18" s="3">
-        <v>600</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>500</v>
       </c>
       <c r="Z18" s="3">
         <v>600</v>
       </c>
       <c r="AA18" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AB18" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AC18" s="3">
         <v>400</v>
       </c>
       <c r="AD18" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>400</v>
+      </c>
+      <c r="AF18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1716,10 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1659,43 +1727,43 @@
         <v>-400</v>
       </c>
       <c r="E20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-500</v>
       </c>
       <c r="G20" s="3">
         <v>-400</v>
       </c>
       <c r="H20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I20" s="3">
         <v>-400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-600</v>
       </c>
       <c r="J20" s="3">
         <v>-400</v>
       </c>
       <c r="K20" s="3">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="L20" s="3">
         <v>-400</v>
       </c>
       <c r="M20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-400</v>
       </c>
       <c r="R20" s="3">
         <v>-400</v>
@@ -1704,40 +1772,46 @@
         <v>-400</v>
       </c>
       <c r="T20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V20" s="3">
         <v>-300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-600</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-600</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>-500</v>
       </c>
       <c r="Z20" s="3">
         <v>-600</v>
       </c>
       <c r="AA20" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="AB20" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="AC20" s="3">
         <v>-400</v>
       </c>
       <c r="AD20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AF20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1822,8 +1896,14 @@
       <c r="AD21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,8 +1988,14 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1994,8 +2080,14 @@
       <c r="AD23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2172,14 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,8 +2264,14 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2252,8 +2356,14 @@
       <c r="AD26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2338,8 +2448,14 @@
       <c r="AD27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2540,14 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2632,14 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2724,14 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2816,14 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2691,43 +2831,43 @@
         <v>400</v>
       </c>
       <c r="E32" s="3">
+        <v>500</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>500</v>
       </c>
       <c r="G32" s="3">
         <v>400</v>
       </c>
       <c r="H32" s="3">
+        <v>500</v>
+      </c>
+      <c r="I32" s="3">
         <v>400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>600</v>
       </c>
       <c r="J32" s="3">
         <v>400</v>
       </c>
       <c r="K32" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L32" s="3">
         <v>400</v>
       </c>
       <c r="M32" s="3">
+        <v>300</v>
+      </c>
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>400</v>
+      </c>
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>400</v>
       </c>
       <c r="R32" s="3">
         <v>400</v>
@@ -2736,40 +2876,46 @@
         <v>400</v>
       </c>
       <c r="T32" s="3">
+        <v>400</v>
+      </c>
+      <c r="U32" s="3">
+        <v>400</v>
+      </c>
+      <c r="V32" s="3">
         <v>300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>600</v>
-      </c>
-      <c r="X32" s="3">
-        <v>600</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>500</v>
       </c>
       <c r="Z32" s="3">
         <v>600</v>
       </c>
       <c r="AA32" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AB32" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AC32" s="3">
         <v>400</v>
       </c>
       <c r="AD32" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>400</v>
+      </c>
+      <c r="AF32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2854,8 +3000,14 @@
       <c r="AD33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,8 +3092,14 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -3026,99 +3184,111 @@
       <c r="AD35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AF38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3319,10 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,8 +3353,10 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3267,8 +3441,14 @@
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3533,14 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3439,8 +3625,14 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3717,14 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3611,8 +3809,14 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3697,8 +3901,14 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3993,14 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3869,8 +4085,14 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4177,14 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4269,14 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4361,14 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4453,14 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,8 +4545,14 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4385,8 +4637,14 @@
       <c r="AD54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4675,10 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4709,10 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4535,8 +4797,14 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4621,8 +4889,14 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4707,8 +4981,14 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4793,8 +5073,14 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4879,8 +5165,14 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4965,8 +5257,14 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5349,14 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5441,14 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,8 +5533,14 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5309,8 +5625,14 @@
       <c r="AD66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5663,10 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5751,14 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5843,14 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5935,14 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,8 +6027,14 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5771,8 +6119,14 @@
       <c r="AD72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6211,14 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6303,14 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,8 +6395,14 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6115,8 +6487,14 @@
       <c r="AD76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,99 +6579,111 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AF80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6378,8 +6768,14 @@
       <c r="AD81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6806,10 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6894,14 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6986,14 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +7078,14 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +7170,14 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7262,14 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7354,14 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7012,8 +7446,14 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7484,10 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7130,8 +7572,14 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7664,14 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7756,14 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7388,8 +7848,14 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7886,10 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7974,14 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +8066,14 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +8158,14 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8250,14 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7850,8 +8342,14 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,8 +8434,14 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8020,6 +8524,12 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
